--- a/Profit/Budget 2016 - itsprinting.org.xlsx
+++ b/Profit/Budget 2016 - itsprinting.org.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="88">
   <si>
     <t>Total Expenses</t>
   </si>
@@ -152,6 +152,625 @@
   </si>
   <si>
     <t>Fundraising costs</t>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1% surcharge on all crowdsourced funding for projects that utilize the vPMO function of the Business Adopters community</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>a.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Average project: $20,000 funding</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                                                                       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>i.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Gross average $200 per project</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                                                                     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ii.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Note1: Higher volume is the goal – we can scale the site to handle the volume at greater efficiency due to scale</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                                                                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>iii.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Note2: Initial costs will be high due to development needed. Infrastructure costs can be incremented through a back-end agreement with organizations such as Parse.com</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Click-through advertising</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>a.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>The “Connections” section of 3DP Diner has a social networking feature that allows logical grouping of business contexts such as Consumer-to-Consumer (C2C), Business-to-Business (B2B), and Business-to-Consumer (B2C).  Within those constructs is a marketplace concept.  Permitting tasteful advertising in these contexts provides a revenue stream based on purchases made or services exchanged.  [</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>quantify</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Targeted inbound advertising</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>a.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Utilize advanced analytics to target blogs and other quality content provided to direct custom advertising.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                                                                       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>i.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>This is a big field and can be very lucrative if done right</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                                                                     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ii.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>This can also challenge our principles and must be managed carefully</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Donations from individuals</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>a.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Trades and Professions community members are offered a free skills profile they can store on our cloud.  We will have an API that makes this profile available to potential employers and other collaborators.  They have the option to donate when signing up for the community.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                                                                       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>i.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">They also have education options presented as part of the skills tool – this is free too, but offers another opportunity for an optional </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>donation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>b.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>The option to donate is also given to Business Adopters and Enthusiasts at community sign up time.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Donations from organizations and institutions</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>a.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>One of our founding principles is to capture and share data and information gathered from our website, applications, and organizational programs.  We will seek grants and other monies that help us to do this.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>b.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>We will accept donations from for-profit corporations if we can assure full transparency and absolutely no preferential treatment.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>6.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Developing business processes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>a.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>The blog DIMx3 captures the development of a process to utilize 3D printing to visualize large data sets.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                                                                       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>i.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Licensing – if we are successful in the development we could license it to businesses</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>b.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>There is a shortage of standards for 3D printing.  We could provide services in this sector and bill the consumer of the services.</t>
+    </r>
+  </si>
+  <si>
+    <t>vPMO Surcharge</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>Yearly</t>
+  </si>
+  <si>
+    <t>10 projects average/month.  This will start out slower and pickup towards the end of the year.</t>
+  </si>
+  <si>
+    <t>Inbound Advertising</t>
+  </si>
+  <si>
+    <t>Fundraising Campaigns</t>
+  </si>
+  <si>
+    <t>Two major campaigns per year.</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>(Checksum)</t>
+  </si>
+  <si>
+    <t>Marketplace Advertising</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grants and Donations - Corporate </t>
+  </si>
+  <si>
+    <t>Grants and Donations - Individual</t>
+  </si>
+  <si>
+    <t>Inviduals</t>
+  </si>
+  <si>
+    <t>IT Services</t>
+  </si>
+  <si>
+    <t>Legal, CPA, Other administrative</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Revenue Category</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>In-kind</t>
+  </si>
+  <si>
+    <t>fees</t>
+  </si>
+  <si>
+    <t>license and association</t>
+  </si>
+  <si>
+    <t>assoc of 3D printing</t>
   </si>
 </sst>
 </file>
@@ -165,7 +784,7 @@
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -286,6 +905,35 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -467,7 +1115,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -539,14 +1187,46 @@
     <xf numFmtId="164" fontId="8" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -883,8 +1563,8 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -899,42 +1579,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
       <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
       <c r="H3" s="20"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
       <c r="F4" s="19"/>
       <c r="G4" s="15"/>
     </row>
@@ -971,7 +1651,7 @@
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="50" t="s">
         <v>32</v>
       </c>
       <c r="B7" s="22"/>
@@ -1009,7 +1689,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="23">
-        <v>11000</v>
+        <v>46000</v>
       </c>
       <c r="C10" s="23"/>
       <c r="D10" s="23"/>
@@ -1045,7 +1725,7 @@
         <v>17</v>
       </c>
       <c r="B13" s="23">
-        <v>11000</v>
+        <v>46000</v>
       </c>
       <c r="C13" s="23"/>
       <c r="D13" s="23"/>
@@ -1057,7 +1737,7 @@
         <v>18</v>
       </c>
       <c r="B14" s="23">
-        <v>99000</v>
+        <v>64000</v>
       </c>
       <c r="C14" s="23"/>
       <c r="D14" s="23"/>
@@ -1069,7 +1749,7 @@
         <v>19</v>
       </c>
       <c r="B15" s="23">
-        <v>99000</v>
+        <v>64000</v>
       </c>
       <c r="C15" s="23"/>
       <c r="D15" s="23"/>
@@ -1100,7 +1780,7 @@
       <c r="H17" s="18"/>
     </row>
     <row r="18" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="52" t="s">
+      <c r="A18" s="49" t="s">
         <v>40</v>
       </c>
       <c r="B18" s="24">
@@ -1162,7 +1842,7 @@
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="54" t="s">
+      <c r="A24" s="51" t="s">
         <v>4</v>
       </c>
       <c r="B24" s="26"/>
@@ -1353,7 +2033,7 @@
       <c r="H39" s="8"/>
     </row>
     <row r="40" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="52" t="s">
+      <c r="A40" s="49" t="s">
         <v>41</v>
       </c>
       <c r="B40" s="24">
@@ -1459,15 +2139,548 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="33.140625" style="57" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="66" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="66" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" style="57" customWidth="1"/>
+    <col min="5" max="5" width="47.140625" style="57" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="64" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="63" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="63" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="66">
+        <v>1250</v>
+      </c>
+      <c r="C2" s="66">
+        <f>B2*12</f>
+        <v>15000</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="69" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="66">
+        <v>1200</v>
+      </c>
+      <c r="C3" s="66">
+        <f t="shared" ref="C3:C34" si="0">B3*12</f>
+        <v>14400</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="61"/>
+    </row>
+    <row r="4" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="66">
+        <v>2884</v>
+      </c>
+      <c r="C4" s="66">
+        <f>B4*12</f>
+        <v>34608</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="61"/>
+    </row>
+    <row r="5" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="66">
+        <v>5333</v>
+      </c>
+      <c r="C5" s="66">
+        <f t="shared" si="0"/>
+        <v>63996</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="69" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="66">
+        <v>3830</v>
+      </c>
+      <c r="C6" s="66">
+        <f t="shared" si="0"/>
+        <v>45960</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="61"/>
+    </row>
+    <row r="7" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="66">
+        <v>3830</v>
+      </c>
+      <c r="C7" s="66">
+        <f t="shared" si="0"/>
+        <v>45960</v>
+      </c>
+      <c r="D7" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="61"/>
+    </row>
+    <row r="8" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="66">
+        <v>420</v>
+      </c>
+      <c r="C8" s="66">
+        <f t="shared" si="0"/>
+        <v>5040</v>
+      </c>
+      <c r="D8" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="69" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="66">
+        <v>420</v>
+      </c>
+      <c r="C9" s="66">
+        <f t="shared" si="0"/>
+        <v>5040</v>
+      </c>
+      <c r="D9" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="69" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="61"/>
+    </row>
+    <row r="11" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="61"/>
+    </row>
+    <row r="12" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="61"/>
+    </row>
+    <row r="13" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="61"/>
+    </row>
+    <row r="14" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="61"/>
+    </row>
+    <row r="15" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="61"/>
+    </row>
+    <row r="16" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="61"/>
+    </row>
+    <row r="17" spans="3:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="61"/>
+    </row>
+    <row r="18" spans="3:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="61"/>
+    </row>
+    <row r="19" spans="3:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C19" s="66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="61"/>
+    </row>
+    <row r="20" spans="3:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="61"/>
+    </row>
+    <row r="21" spans="3:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="61"/>
+    </row>
+    <row r="22" spans="3:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C22" s="66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="61"/>
+    </row>
+    <row r="23" spans="3:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C23" s="66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E23" s="61"/>
+    </row>
+    <row r="24" spans="3:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C24" s="66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="61"/>
+    </row>
+    <row r="25" spans="3:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C25" s="66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="61"/>
+    </row>
+    <row r="26" spans="3:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C26" s="66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="61"/>
+    </row>
+    <row r="27" spans="3:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C27" s="66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="61"/>
+    </row>
+    <row r="28" spans="3:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C28" s="66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E28" s="61"/>
+    </row>
+    <row r="29" spans="3:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C29" s="66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="61"/>
+    </row>
+    <row r="30" spans="3:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C30" s="66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="61"/>
+    </row>
+    <row r="31" spans="3:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C31" s="66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="61"/>
+    </row>
+    <row r="32" spans="3:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C32" s="66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E32" s="61"/>
+    </row>
+    <row r="33" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C33" s="66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E33" s="61"/>
+    </row>
+    <row r="34" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C34" s="66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E34" s="61"/>
+    </row>
+    <row r="35" spans="1:5" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" s="67">
+        <f>SUM(B2:B34)</f>
+        <v>19167</v>
+      </c>
+      <c r="C35" s="67">
+        <f>SUM(C2:C34)</f>
+        <v>230004</v>
+      </c>
+      <c r="D35" s="53">
+        <f>B35*12</f>
+        <v>230004</v>
+      </c>
+      <c r="E35" s="70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="61" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A36" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="68"/>
+      <c r="C36" s="68"/>
+      <c r="E36" s="57"/>
+    </row>
+    <row r="37" spans="1:5" s="61" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A37" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="68"/>
+      <c r="C37" s="68"/>
+      <c r="E37" s="57"/>
+    </row>
+    <row r="38" spans="1:5" s="61" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A38" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="68"/>
+      <c r="C38" s="68"/>
+      <c r="E38" s="57"/>
+    </row>
+    <row r="39" spans="1:5" s="61" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A39" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="68"/>
+      <c r="C39" s="68"/>
+      <c r="E39" s="57"/>
+    </row>
+    <row r="40" spans="1:5" s="61" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A40" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="68"/>
+      <c r="C40" s="68"/>
+      <c r="E40" s="57"/>
+    </row>
+    <row r="41" spans="1:5" s="61" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A41" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="68"/>
+      <c r="C41" s="68"/>
+      <c r="E41" s="57"/>
+    </row>
+    <row r="42" spans="1:5" s="61" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A42" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" s="68"/>
+      <c r="C42" s="68"/>
+      <c r="E42" s="57"/>
+    </row>
+    <row r="43" spans="1:5" s="61" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A43" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" s="68"/>
+      <c r="C43" s="68"/>
+      <c r="E43" s="57"/>
+    </row>
+    <row r="44" spans="1:5" s="61" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A44" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44" s="68"/>
+      <c r="C44" s="68"/>
+      <c r="E44" s="57"/>
+    </row>
+    <row r="45" spans="1:5" s="61" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A45" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" s="68"/>
+      <c r="C45" s="68"/>
+      <c r="E45" s="57"/>
+    </row>
+    <row r="46" spans="1:5" s="61" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A46" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" s="68"/>
+      <c r="C46" s="68"/>
+      <c r="E46" s="57"/>
+    </row>
+    <row r="47" spans="1:5" s="61" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A47" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" s="68"/>
+      <c r="C47" s="68"/>
+      <c r="E47" s="57"/>
+    </row>
+    <row r="48" spans="1:5" s="61" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A48" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48" s="68"/>
+      <c r="C48" s="68"/>
+      <c r="E48" s="57"/>
+    </row>
+    <row r="49" spans="1:5" s="61" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A49" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49" s="68"/>
+      <c r="C49" s="68"/>
+      <c r="E49" s="57"/>
+    </row>
+    <row r="50" spans="1:5" s="61" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A50" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" s="68"/>
+      <c r="C50" s="68"/>
+      <c r="E50" s="57"/>
+    </row>
+    <row r="51" spans="1:5" s="61" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A51" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" s="68"/>
+      <c r="C51" s="68"/>
+      <c r="E51" s="57"/>
+    </row>
+    <row r="52" spans="1:5" s="61" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A52" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52" s="68"/>
+      <c r="C52" s="68"/>
+      <c r="E52" s="57"/>
+    </row>
+    <row r="53" spans="1:5" s="61" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A53" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53" s="68"/>
+      <c r="C53" s="68"/>
+      <c r="E53" s="57"/>
+    </row>
+    <row r="54" spans="1:5" s="61" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A54" s="60" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54" s="68"/>
+      <c r="C54" s="68"/>
+      <c r="E54" s="57"/>
+    </row>
+    <row r="55" spans="1:5" s="61" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A55" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55" s="68"/>
+      <c r="C55" s="68"/>
+      <c r="E55" s="57"/>
+    </row>
+    <row r="56" spans="1:5" s="61" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A56" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="B56" s="68"/>
+      <c r="C56" s="68"/>
+      <c r="E56" s="57"/>
+    </row>
+    <row r="57" spans="1:5" s="61" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A57" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="B57" s="68"/>
+      <c r="C57" s="68"/>
+      <c r="E57" s="57"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1476,12 +2689,26 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="52" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Profit/Budget 2016 - itsprinting.org.xlsx
+++ b/Profit/Budget 2016 - itsprinting.org.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="98">
   <si>
     <t>Total Expenses</t>
   </si>
@@ -752,9 +752,6 @@
     <t>Legal, CPA, Other administrative</t>
   </si>
   <si>
-    <t>Item</t>
-  </si>
-  <si>
     <t>Revenue Category</t>
   </si>
   <si>
@@ -764,25 +761,59 @@
     <t>In-kind</t>
   </si>
   <si>
-    <t>fees</t>
-  </si>
-  <si>
-    <t>license and association</t>
-  </si>
-  <si>
-    <t>assoc of 3D printing</t>
+    <t>Expense</t>
+  </si>
+  <si>
+    <t>Salary - ED</t>
+  </si>
+  <si>
+    <t>Executive Director salary.  This is a greatly reduced salary for the first year in order to ensure adequate funds for operations.  The person fulfilling the role will need to have supplemental income.  For that reason the ED position will be considered part-time for this first year, although the ED must be fully committed.</t>
+  </si>
+  <si>
+    <t>Payroll tax</t>
+  </si>
+  <si>
+    <t>Employee benefits</t>
+  </si>
+  <si>
+    <t>Association of 3D printing</t>
+  </si>
+  <si>
+    <t>Membership fees</t>
+  </si>
+  <si>
+    <t>Web fees</t>
+  </si>
+  <si>
+    <t>Domain registrations, host-provider costs</t>
+  </si>
+  <si>
+    <t>License fees</t>
+  </si>
+  <si>
+    <t>Software and systems fees</t>
+  </si>
+  <si>
+    <t>Expense Category</t>
+  </si>
+  <si>
+    <t>Revenue Item</t>
+  </si>
+  <si>
+    <t>There will be no benefits paid this first year</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="25" x14ac:knownFonts="1">
     <font>
@@ -1115,7 +1146,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1227,6 +1258,13 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -1563,8 +1601,8 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
+      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1579,42 +1617,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
       <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
       <c r="H3" s="20"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
       <c r="F4" s="19"/>
       <c r="G4" s="15"/>
     </row>
@@ -1689,7 +1727,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="23">
-        <v>46000</v>
+        <v>26000</v>
       </c>
       <c r="C10" s="23"/>
       <c r="D10" s="23"/>
@@ -1725,7 +1763,7 @@
         <v>17</v>
       </c>
       <c r="B13" s="23">
-        <v>46000</v>
+        <v>16160</v>
       </c>
       <c r="C13" s="23"/>
       <c r="D13" s="23"/>
@@ -1749,7 +1787,7 @@
         <v>19</v>
       </c>
       <c r="B15" s="23">
-        <v>64000</v>
+        <v>32000</v>
       </c>
       <c r="C15" s="23"/>
       <c r="D15" s="23"/>
@@ -1772,7 +1810,7 @@
       </c>
       <c r="B17" s="24">
         <f>SUM(B8:B16)</f>
-        <v>220000</v>
+        <v>138160</v>
       </c>
       <c r="C17" s="24"/>
       <c r="D17" s="24"/>
@@ -1818,7 +1856,7 @@
       </c>
       <c r="B21" s="40">
         <f>B19+B17</f>
-        <v>230000</v>
+        <v>148160</v>
       </c>
       <c r="C21" s="40"/>
       <c r="D21" s="40"/>
@@ -1856,7 +1894,7 @@
         <v>27</v>
       </c>
       <c r="B25" s="23">
-        <v>90000</v>
+        <v>18000</v>
       </c>
       <c r="C25" s="23"/>
       <c r="D25" s="23"/>
@@ -1880,7 +1918,8 @@
         <v>20</v>
       </c>
       <c r="B27" s="23">
-        <v>12000</v>
+        <f>'Expense - Details'!C3</f>
+        <v>2160</v>
       </c>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
@@ -2025,7 +2064,7 @@
       </c>
       <c r="B39" s="24">
         <f>SUM(B25:B38)</f>
-        <v>220000</v>
+        <v>138160</v>
       </c>
       <c r="C39" s="24"/>
       <c r="D39" s="24"/>
@@ -2071,7 +2110,7 @@
       </c>
       <c r="B43" s="40">
         <f>SUM(B41,B39)</f>
-        <v>230000</v>
+        <v>148160</v>
       </c>
       <c r="C43" s="40"/>
       <c r="D43" s="40"/>
@@ -2139,10 +2178,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2156,7 +2195,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="64" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B1" s="65" t="s">
         <v>67</v>
@@ -2165,10 +2204,10 @@
         <v>68</v>
       </c>
       <c r="D1" s="63" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="63" t="s">
         <v>82</v>
-      </c>
-      <c r="E1" s="63" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2197,7 +2236,7 @@
         <v>1200</v>
       </c>
       <c r="C3" s="66">
-        <f t="shared" ref="C3:C34" si="0">B3*12</f>
+        <f t="shared" ref="C3:C9" si="0">B3*12</f>
         <v>14400</v>
       </c>
       <c r="D3" s="35" t="s">
@@ -2286,7 +2325,7 @@
         <v>40</v>
       </c>
       <c r="E8" s="69" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2304,379 +2343,210 @@
         <v>40</v>
       </c>
       <c r="E9" s="69" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="66">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E10" s="61"/>
-    </row>
-    <row r="11" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="66">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="61"/>
-    </row>
-    <row r="12" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="66">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E12" s="61"/>
-    </row>
-    <row r="13" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="66">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E13" s="61"/>
-    </row>
-    <row r="14" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="66">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E14" s="61"/>
-    </row>
-    <row r="15" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="66">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E15" s="61"/>
-    </row>
-    <row r="16" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="66">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E16" s="61"/>
-    </row>
-    <row r="17" spans="3:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="66">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E17" s="61"/>
-    </row>
-    <row r="18" spans="3:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="66">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E18" s="61"/>
-    </row>
-    <row r="19" spans="3:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="66">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E19" s="61"/>
-    </row>
-    <row r="20" spans="3:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="66">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E20" s="61"/>
-    </row>
-    <row r="21" spans="3:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C21" s="66">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E21" s="61"/>
-    </row>
-    <row r="22" spans="3:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C22" s="66">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E22" s="61"/>
-    </row>
-    <row r="23" spans="3:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C23" s="66">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E23" s="61"/>
-    </row>
-    <row r="24" spans="3:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C24" s="66">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E24" s="61"/>
-    </row>
-    <row r="25" spans="3:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C25" s="66">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E25" s="61"/>
-    </row>
-    <row r="26" spans="3:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C26" s="66">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E26" s="61"/>
-    </row>
-    <row r="27" spans="3:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C27" s="66">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E27" s="61"/>
-    </row>
-    <row r="28" spans="3:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C28" s="66">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E28" s="61"/>
-    </row>
-    <row r="29" spans="3:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C29" s="66">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E29" s="61"/>
-    </row>
-    <row r="30" spans="3:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C30" s="66">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E30" s="61"/>
-    </row>
-    <row r="31" spans="3:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C31" s="66">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E31" s="61"/>
-    </row>
-    <row r="32" spans="3:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C32" s="66">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E32" s="61"/>
-    </row>
-    <row r="33" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C33" s="66">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E33" s="61"/>
-    </row>
-    <row r="34" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C34" s="66">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E34" s="61"/>
-    </row>
-    <row r="35" spans="1:5" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="59" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="B35" s="67">
-        <f>SUM(B2:B34)</f>
+      <c r="B10" s="67">
+        <f>SUM(B2:B9)</f>
         <v>19167</v>
       </c>
-      <c r="C35" s="67">
-        <f>SUM(C2:C34)</f>
+      <c r="C10" s="67">
+        <f>SUM(C2:C9)</f>
         <v>230004</v>
       </c>
-      <c r="D35" s="53">
-        <f>B35*12</f>
+      <c r="D10" s="53">
+        <f>B10*12</f>
         <v>230004</v>
       </c>
-      <c r="E35" s="70" t="s">
+      <c r="E10" s="70" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="61" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A36" s="60" t="s">
+    <row r="11" spans="1:5" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="59"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="E11" s="70"/>
+    </row>
+    <row r="12" spans="1:5" s="61" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="68"/>
-      <c r="C36" s="68"/>
-      <c r="E36" s="57"/>
-    </row>
-    <row r="37" spans="1:5" s="61" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A37" s="60" t="s">
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
+      <c r="E12" s="57"/>
+    </row>
+    <row r="13" spans="1:5" s="61" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="68"/>
-      <c r="C37" s="68"/>
-      <c r="E37" s="57"/>
-    </row>
-    <row r="38" spans="1:5" s="61" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A38" s="62" t="s">
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
+      <c r="E13" s="57"/>
+    </row>
+    <row r="14" spans="1:5" s="61" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="68"/>
-      <c r="C38" s="68"/>
-      <c r="E38" s="57"/>
-    </row>
-    <row r="39" spans="1:5" s="61" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A39" s="62" t="s">
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
+      <c r="E14" s="57"/>
+    </row>
+    <row r="15" spans="1:5" s="61" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="B39" s="68"/>
-      <c r="C39" s="68"/>
-      <c r="E39" s="57"/>
-    </row>
-    <row r="40" spans="1:5" s="61" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A40" s="62" t="s">
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
+      <c r="E15" s="57"/>
+    </row>
+    <row r="16" spans="1:5" s="61" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="68"/>
-      <c r="C40" s="68"/>
-      <c r="E40" s="57"/>
-    </row>
-    <row r="41" spans="1:5" s="61" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A41" s="60" t="s">
+      <c r="B16" s="68"/>
+      <c r="C16" s="68"/>
+      <c r="E16" s="57"/>
+    </row>
+    <row r="17" spans="1:5" s="61" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="68"/>
-      <c r="C41" s="68"/>
-      <c r="E41" s="57"/>
-    </row>
-    <row r="42" spans="1:5" s="61" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A42" s="60" t="s">
+      <c r="B17" s="68"/>
+      <c r="C17" s="68"/>
+      <c r="E17" s="57"/>
+    </row>
+    <row r="18" spans="1:5" s="61" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="B42" s="68"/>
-      <c r="C42" s="68"/>
-      <c r="E42" s="57"/>
-    </row>
-    <row r="43" spans="1:5" s="61" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A43" s="60" t="s">
+      <c r="B18" s="68"/>
+      <c r="C18" s="68"/>
+      <c r="E18" s="57"/>
+    </row>
+    <row r="19" spans="1:5" s="61" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="68"/>
-      <c r="C43" s="68"/>
-      <c r="E43" s="57"/>
-    </row>
-    <row r="44" spans="1:5" s="61" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A44" s="60" t="s">
+      <c r="B19" s="68"/>
+      <c r="C19" s="68"/>
+      <c r="E19" s="57"/>
+    </row>
+    <row r="20" spans="1:5" s="61" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="B44" s="68"/>
-      <c r="C44" s="68"/>
-      <c r="E44" s="57"/>
-    </row>
-    <row r="45" spans="1:5" s="61" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A45" s="62" t="s">
+      <c r="B20" s="68"/>
+      <c r="C20" s="68"/>
+      <c r="E20" s="57"/>
+    </row>
+    <row r="21" spans="1:5" s="61" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="B45" s="68"/>
-      <c r="C45" s="68"/>
-      <c r="E45" s="57"/>
-    </row>
-    <row r="46" spans="1:5" s="61" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A46" s="62" t="s">
+      <c r="B21" s="68"/>
+      <c r="C21" s="68"/>
+      <c r="E21" s="57"/>
+    </row>
+    <row r="22" spans="1:5" s="61" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="B46" s="68"/>
-      <c r="C46" s="68"/>
-      <c r="E46" s="57"/>
-    </row>
-    <row r="47" spans="1:5" s="61" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A47" s="60" t="s">
+      <c r="B22" s="68"/>
+      <c r="C22" s="68"/>
+      <c r="E22" s="57"/>
+    </row>
+    <row r="23" spans="1:5" s="61" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="68"/>
-      <c r="C47" s="68"/>
-      <c r="E47" s="57"/>
-    </row>
-    <row r="48" spans="1:5" s="61" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A48" s="60" t="s">
+      <c r="B23" s="68"/>
+      <c r="C23" s="68"/>
+      <c r="E23" s="57"/>
+    </row>
+    <row r="24" spans="1:5" s="61" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="B48" s="68"/>
-      <c r="C48" s="68"/>
-      <c r="E48" s="57"/>
-    </row>
-    <row r="49" spans="1:5" s="61" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A49" s="62" t="s">
+      <c r="B24" s="68"/>
+      <c r="C24" s="68"/>
+      <c r="E24" s="57"/>
+    </row>
+    <row r="25" spans="1:5" s="61" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="B49" s="68"/>
-      <c r="C49" s="68"/>
-      <c r="E49" s="57"/>
-    </row>
-    <row r="50" spans="1:5" s="61" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A50" s="60" t="s">
+      <c r="B25" s="68"/>
+      <c r="C25" s="68"/>
+      <c r="E25" s="57"/>
+    </row>
+    <row r="26" spans="1:5" s="61" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A26" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="B50" s="68"/>
-      <c r="C50" s="68"/>
-      <c r="E50" s="57"/>
-    </row>
-    <row r="51" spans="1:5" s="61" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A51" s="60" t="s">
+      <c r="B26" s="68"/>
+      <c r="C26" s="68"/>
+      <c r="E26" s="57"/>
+    </row>
+    <row r="27" spans="1:5" s="61" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A27" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="B51" s="68"/>
-      <c r="C51" s="68"/>
-      <c r="E51" s="57"/>
-    </row>
-    <row r="52" spans="1:5" s="61" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A52" s="60" t="s">
+      <c r="B27" s="68"/>
+      <c r="C27" s="68"/>
+      <c r="E27" s="57"/>
+    </row>
+    <row r="28" spans="1:5" s="61" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="B52" s="68"/>
-      <c r="C52" s="68"/>
-      <c r="E52" s="57"/>
-    </row>
-    <row r="53" spans="1:5" s="61" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A53" s="60" t="s">
+      <c r="B28" s="68"/>
+      <c r="C28" s="68"/>
+      <c r="E28" s="57"/>
+    </row>
+    <row r="29" spans="1:5" s="61" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A29" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="B53" s="68"/>
-      <c r="C53" s="68"/>
-      <c r="E53" s="57"/>
-    </row>
-    <row r="54" spans="1:5" s="61" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A54" s="60" t="s">
+      <c r="B29" s="68"/>
+      <c r="C29" s="68"/>
+      <c r="E29" s="57"/>
+    </row>
+    <row r="30" spans="1:5" s="61" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A30" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="B54" s="68"/>
-      <c r="C54" s="68"/>
-      <c r="E54" s="57"/>
-    </row>
-    <row r="55" spans="1:5" s="61" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A55" s="60" t="s">
+      <c r="B30" s="68"/>
+      <c r="C30" s="68"/>
+      <c r="E30" s="57"/>
+    </row>
+    <row r="31" spans="1:5" s="61" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A31" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="B55" s="68"/>
-      <c r="C55" s="68"/>
-      <c r="E55" s="57"/>
-    </row>
-    <row r="56" spans="1:5" s="61" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A56" s="62" t="s">
+      <c r="B31" s="68"/>
+      <c r="C31" s="68"/>
+      <c r="E31" s="57"/>
+    </row>
+    <row r="32" spans="1:5" s="61" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A32" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="B56" s="68"/>
-      <c r="C56" s="68"/>
-      <c r="E56" s="57"/>
-    </row>
-    <row r="57" spans="1:5" s="61" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A57" s="60" t="s">
+      <c r="B32" s="68"/>
+      <c r="C32" s="68"/>
+      <c r="E32" s="57"/>
+    </row>
+    <row r="33" spans="1:5" s="61" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A33" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="B57" s="68"/>
-      <c r="C57" s="68"/>
-      <c r="E57" s="57"/>
+      <c r="B33" s="68"/>
+      <c r="C33" s="68"/>
+      <c r="E33" s="57"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2689,26 +2559,126 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" style="74"/>
+    <col min="4" max="4" width="19.7109375" style="56" customWidth="1"/>
+    <col min="5" max="5" width="111.28515625" style="57" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:10" s="55" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+    </row>
+    <row r="2" spans="1:10" s="56" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B2" s="74">
+        <v>1500</v>
+      </c>
+      <c r="C2" s="74">
+        <f>B2*12</f>
+        <v>18000</v>
+      </c>
+      <c r="E2" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="52" t="s">
+    </row>
+    <row r="3" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="54" t="s">
         <v>87</v>
+      </c>
+      <c r="B3" s="74">
+        <f>B2*0.12</f>
+        <v>180</v>
+      </c>
+      <c r="C3" s="74">
+        <f>B3*12</f>
+        <v>2160</v>
+      </c>
+      <c r="D3" s="54"/>
+      <c r="E3" s="57"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="74">
+        <v>0</v>
+      </c>
+      <c r="C4" s="74">
+        <f>B4*12</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="54"/>
+      <c r="E4" s="58" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="74">
+        <v>500</v>
+      </c>
+      <c r="D5" s="54"/>
+      <c r="E5" s="58" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="74">
+        <v>3800</v>
+      </c>
+      <c r="D6" s="54"/>
+      <c r="E6" s="58" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="74">
+        <v>2500</v>
+      </c>
+      <c r="D7" s="54"/>
+      <c r="E7" s="58" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Profit/Budget 2016 - itsprinting.org.xlsx
+++ b/Profit/Budget 2016 - itsprinting.org.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="119">
   <si>
     <t>Total Expenses</t>
   </si>
@@ -31,9 +31,6 @@
     <t>Supplies</t>
   </si>
   <si>
-    <t>Travel and meetings</t>
-  </si>
-  <si>
     <t>Expenses</t>
   </si>
   <si>
@@ -92,12 +89,6 @@
   </si>
   <si>
     <t xml:space="preserve">Equipment </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Staff development </t>
-  </si>
-  <si>
-    <t>IT/telephone</t>
   </si>
   <si>
     <t>Postage &amp; delivery</t>
@@ -776,18 +767,9 @@
     <t>Employee benefits</t>
   </si>
   <si>
-    <t>Association of 3D printing</t>
-  </si>
-  <si>
     <t>Membership fees</t>
   </si>
   <si>
-    <t>Web fees</t>
-  </si>
-  <si>
-    <t>Domain registrations, host-provider costs</t>
-  </si>
-  <si>
     <t>License fees</t>
   </si>
   <si>
@@ -801,17 +783,96 @@
   </si>
   <si>
     <t>There will be no benefits paid this first year</t>
+  </si>
+  <si>
+    <t>Equipment</t>
+  </si>
+  <si>
+    <t>Web presence</t>
+  </si>
+  <si>
+    <t>3D printer</t>
+  </si>
+  <si>
+    <t>Office Space</t>
+  </si>
+  <si>
+    <t>Professional services</t>
+  </si>
+  <si>
+    <t>Association of 3D printing and other industry-related groups and associations</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>Expenses related to marketing campaigns.</t>
+  </si>
+  <si>
+    <t>We will continue to operate from home offices for this first year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3D printer to be used for creating objects for fund-raiser premiums. </t>
+  </si>
+  <si>
+    <t>IT Contractor</t>
+  </si>
+  <si>
+    <t>Domain registrations, tools, and host-provider costs.  This area needs deeper planning to consider options such as Parse.com backend with pay on demand models.</t>
+  </si>
+  <si>
+    <t>Paid to developers, business analysts, quality assurance, data experts, project managers, and other technical specialists as needed to produce intellectual property for use in organizational programs.  These are short project-based expenses and do not reflect a steady monthly outlay of funds</t>
+  </si>
+  <si>
+    <t>Administrative</t>
+  </si>
+  <si>
+    <t>Includes the materials to use with the printer, and general office supplies.  If expenses in this category increase it should mean that revenue increases along with it at about the same rate.</t>
+  </si>
+  <si>
+    <t>Includes expenses for travel, meetings, or other business-necessary administrative costs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Legal, Certified Public Accounting (review, file, audit), Business Consulting, IP Asset Development (images,video &amp; other digital media), etc... </t>
+  </si>
+  <si>
+    <t>Liability Insurance</t>
+  </si>
+  <si>
+    <t>Staff development</t>
+  </si>
+  <si>
+    <t>Training and skills development for ED and volunteers</t>
+  </si>
+  <si>
+    <t>Voluneer expenses</t>
+  </si>
+  <si>
+    <t>Miscellaneous expenses related to setting up volunteers to be productive</t>
+  </si>
+  <si>
+    <t>Pulled the number out of air. I need to research this cost (~James).  This is insurance to protect the organization and board of directors from liability suits</t>
+  </si>
+  <si>
+    <t>Details:</t>
+  </si>
+  <si>
+    <t>Travel, training and meetings</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Occupancy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="6">
+  <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
@@ -1146,7 +1207,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1175,25 +1236,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1205,19 +1247,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1250,21 +1279,60 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -1601,547 +1669,547 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="41" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="41" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="41" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="41" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="72" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
+      <c r="A1" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="73" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
+      <c r="A2" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
       <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="72" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
+      <c r="A3" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
       <c r="H3" s="20"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="71" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
+      <c r="A4" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
       <c r="F4" s="19"/>
       <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
-      <c r="B5" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>36</v>
+      <c r="B5" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="56" t="s">
+        <v>33</v>
       </c>
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="D6" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="60"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="61">
+        <v>0</v>
+      </c>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="62"/>
+      <c r="H8" s="16"/>
+    </row>
+    <row r="9" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="61">
+        <v>0</v>
+      </c>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="62"/>
+      <c r="H9" s="16"/>
+    </row>
+    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="36"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="23">
+      <c r="B10" s="61">
+        <v>26000</v>
+      </c>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="62"/>
+      <c r="H10" s="16"/>
+    </row>
+    <row r="11" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="61">
         <v>0</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="28"/>
-      <c r="H8" s="16"/>
-    </row>
-    <row r="9" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="23">
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="62"/>
+      <c r="H11" s="16"/>
+    </row>
+    <row r="12" spans="1:8" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="61">
         <v>0</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="28"/>
-      <c r="H9" s="16"/>
-    </row>
-    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="23">
-        <v>26000</v>
-      </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="28"/>
-      <c r="H10" s="16"/>
-    </row>
-    <row r="11" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="23">
-        <v>0</v>
-      </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="28"/>
-      <c r="H11" s="16"/>
-    </row>
-    <row r="12" spans="1:8" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="35" t="s">
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="62"/>
+      <c r="H12" s="16"/>
+    </row>
+    <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="23">
-        <v>0</v>
-      </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="28"/>
-      <c r="H12" s="16"/>
-    </row>
-    <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="34" t="s">
+      <c r="B13" s="61">
+        <v>16160</v>
+      </c>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="62"/>
+      <c r="H13" s="16"/>
+    </row>
+    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="23">
-        <v>16160</v>
-      </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="28"/>
-      <c r="H13" s="16"/>
-    </row>
-    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="34" t="s">
+      <c r="B14" s="61">
+        <v>64000</v>
+      </c>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="62"/>
+      <c r="H14" s="16"/>
+    </row>
+    <row r="15" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="23">
-        <v>64000</v>
-      </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="28"/>
-      <c r="H14" s="16"/>
-    </row>
-    <row r="15" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="23">
+      <c r="B15" s="61">
         <v>32000</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="28"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="62"/>
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="28"/>
+      <c r="A16" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="61"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="62"/>
       <c r="H16" s="16"/>
     </row>
     <row r="17" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="24">
+        <v>7</v>
+      </c>
+      <c r="B17" s="63">
         <f>SUM(B8:B16)</f>
         <v>138160</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="29"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="64"/>
       <c r="H17" s="18"/>
     </row>
     <row r="18" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="24">
+      <c r="A18" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="63">
         <v>10000</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="29"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="64"/>
       <c r="H18" s="17"/>
     </row>
     <row r="19" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="24">
+        <v>9</v>
+      </c>
+      <c r="B19" s="63">
         <f>B18</f>
         <v>10000</v>
       </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="29"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="64"/>
       <c r="H19" s="16"/>
     </row>
     <row r="20" spans="1:8" s="2" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="38"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="66"/>
       <c r="H20" s="17"/>
     </row>
     <row r="21" spans="1:8" s="4" customFormat="1" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="40">
+      <c r="B21" s="67">
         <f>B19+B17</f>
         <v>148160</v>
       </c>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="41"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="68"/>
       <c r="H21" s="18"/>
     </row>
     <row r="22" spans="1:8" s="2" customFormat="1" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="36"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="60"/>
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="27"/>
+      <c r="B23" s="70"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="71"/>
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="30"/>
+      <c r="A24" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="72"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="73"/>
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="23">
+      <c r="A25" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="61">
         <v>18000</v>
       </c>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="28"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="62"/>
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="23">
+      <c r="A26" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="61">
         <v>10000</v>
       </c>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="28"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="62"/>
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="23">
+      <c r="A27" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="61">
         <f>'Expense - Details'!C3</f>
         <v>2160</v>
       </c>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="28"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="62"/>
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="61">
+        <v>0</v>
+      </c>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="62"/>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="23">
+      <c r="B29" s="61">
+        <v>5000</v>
+      </c>
+      <c r="C29" s="61"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="62"/>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="B30" s="61">
+        <v>5000</v>
+      </c>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="62"/>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="61">
+        <v>10000</v>
+      </c>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="62"/>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="61">
+        <v>10000</v>
+      </c>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="62"/>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="61">
+        <v>6000</v>
+      </c>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="62"/>
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="B34" s="61">
+        <v>9000</v>
+      </c>
+      <c r="C34" s="61"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="62"/>
+      <c r="H34" s="6"/>
+    </row>
+    <row r="35" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="B35" s="61">
         <v>0</v>
       </c>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="28"/>
-      <c r="H28" s="6"/>
-    </row>
-    <row r="29" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" s="23">
-        <v>5000</v>
-      </c>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="28"/>
-      <c r="H29" s="6"/>
-    </row>
-    <row r="30" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="B30" s="23">
-        <v>5000</v>
-      </c>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="28"/>
-      <c r="H30" s="6"/>
-    </row>
-    <row r="31" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="34" t="s">
+      <c r="C35" s="61"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="62"/>
+      <c r="H35" s="6"/>
+    </row>
+    <row r="36" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="23">
-        <v>10000</v>
-      </c>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="28"/>
-      <c r="H31" s="6"/>
-    </row>
-    <row r="32" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="B32" s="23">
-        <v>10000</v>
-      </c>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="28"/>
-      <c r="H32" s="6"/>
-    </row>
-    <row r="33" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="B33" s="23">
-        <v>3800</v>
-      </c>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="28"/>
-      <c r="H33" s="6"/>
-    </row>
-    <row r="34" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="34" t="s">
+      <c r="B36" s="61">
+        <v>1200</v>
+      </c>
+      <c r="C36" s="61"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="62"/>
+      <c r="H36" s="6"/>
+    </row>
+    <row r="37" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="61">
+        <v>17000</v>
+      </c>
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="62"/>
+      <c r="H37" s="6"/>
+    </row>
+    <row r="38" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="23">
-        <v>6000</v>
-      </c>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="28"/>
-      <c r="H34" s="6"/>
-    </row>
-    <row r="35" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" s="23">
-        <v>9000</v>
-      </c>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="28"/>
-      <c r="H35" s="6"/>
-    </row>
-    <row r="36" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="B36" s="23">
-        <v>1200</v>
-      </c>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="28"/>
-      <c r="H36" s="6"/>
-    </row>
-    <row r="37" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="B37" s="23">
-        <v>17000</v>
-      </c>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="28"/>
-      <c r="H37" s="6"/>
-    </row>
-    <row r="38" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38" s="23">
+      <c r="B38" s="61">
         <v>41000</v>
       </c>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="28"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="61"/>
+      <c r="E38" s="62"/>
       <c r="H38" s="6"/>
     </row>
     <row r="39" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B39" s="24">
+        <v>8</v>
+      </c>
+      <c r="B39" s="63">
         <f>SUM(B25:B38)</f>
-        <v>138160</v>
-      </c>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="29"/>
+        <v>134360</v>
+      </c>
+      <c r="C39" s="63"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="64"/>
       <c r="H39" s="8"/>
     </row>
     <row r="40" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" s="24">
+      <c r="A40" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="63">
         <v>10000</v>
       </c>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="29"/>
+      <c r="C40" s="63"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="64"/>
       <c r="H40" s="8"/>
     </row>
     <row r="41" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B41" s="24">
+        <v>10</v>
+      </c>
+      <c r="B41" s="63">
         <f>B40</f>
         <v>10000</v>
       </c>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="29"/>
+      <c r="C41" s="63"/>
+      <c r="D41" s="63"/>
+      <c r="E41" s="64"/>
       <c r="H41" s="10"/>
     </row>
     <row r="42" spans="1:8" s="3" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
-      <c r="B42" s="42"/>
-      <c r="C42" s="42"/>
-      <c r="D42" s="43"/>
-      <c r="E42" s="44"/>
+      <c r="B42" s="74"/>
+      <c r="C42" s="74"/>
+      <c r="D42" s="75"/>
+      <c r="E42" s="76"/>
       <c r="H42" s="10"/>
     </row>
     <row r="43" spans="1:8" s="3" customFormat="1" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="32" t="s">
+      <c r="A43" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="40">
+      <c r="B43" s="67">
         <f>SUM(B41,B39)</f>
-        <v>148160</v>
-      </c>
-      <c r="C43" s="40"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="41"/>
+        <v>144360</v>
+      </c>
+      <c r="C43" s="67"/>
+      <c r="D43" s="67"/>
+      <c r="E43" s="68"/>
       <c r="H43" s="10"/>
     </row>
     <row r="44" spans="1:8" s="3" customFormat="1" ht="13.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
-      <c r="B44" s="47"/>
-      <c r="C44" s="47"/>
-      <c r="D44" s="47"/>
-      <c r="E44" s="48"/>
+      <c r="B44" s="77"/>
+      <c r="C44" s="77"/>
+      <c r="D44" s="77"/>
+      <c r="E44" s="78"/>
       <c r="H44" s="10"/>
     </row>
     <row r="45" spans="1:8" s="3" customFormat="1" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="B45" s="45">
+      <c r="A45" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="79">
         <f>B21-B43</f>
-        <v>0</v>
-      </c>
-      <c r="C45" s="45"/>
-      <c r="D45" s="45"/>
-      <c r="E45" s="46"/>
+        <v>3800</v>
+      </c>
+      <c r="C45" s="79"/>
+      <c r="D45" s="79"/>
+      <c r="E45" s="80"/>
       <c r="H45" s="10"/>
     </row>
     <row r="46" spans="1:8" s="1" customFormat="1" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
       <c r="D46" s="12"/>
       <c r="E46" s="12"/>
       <c r="F46" s="11"/>
@@ -2150,8 +2218,8 @@
     </row>
     <row r="47" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="13"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
+      <c r="B47" s="58"/>
+      <c r="C47" s="58"/>
       <c r="D47" s="14"/>
       <c r="E47" s="14"/>
       <c r="F47" s="5"/>
@@ -2181,372 +2249,374 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.140625" style="57" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="66" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="66" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" style="57" customWidth="1"/>
-    <col min="5" max="5" width="47.140625" style="57" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" style="33" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="44" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="44" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" style="33" customWidth="1"/>
+    <col min="5" max="5" width="126.5703125" style="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="64" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="65" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="65" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" s="63" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" s="63" t="s">
-        <v>82</v>
+    <row r="1" spans="1:5" s="40" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="57" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" s="66">
+      <c r="A2" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="44">
         <v>1250</v>
       </c>
-      <c r="C2" s="66">
+      <c r="C2" s="44">
         <f>B2*12</f>
         <v>15000</v>
       </c>
-      <c r="D2" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="69" t="s">
-        <v>69</v>
+      <c r="D2" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="58" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="66">
+      <c r="A3" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="44">
         <v>1200</v>
       </c>
-      <c r="C3" s="66">
+      <c r="C3" s="44">
         <f t="shared" ref="C3:C9" si="0">B3*12</f>
         <v>14400</v>
       </c>
-      <c r="D3" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="61"/>
+      <c r="D3" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="37"/>
     </row>
     <row r="4" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="58" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" s="66">
+      <c r="A4" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="44">
         <v>2884</v>
       </c>
-      <c r="C4" s="66">
+      <c r="C4" s="44">
         <f>B4*12</f>
         <v>34608</v>
       </c>
-      <c r="D4" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="61"/>
+      <c r="D4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="37"/>
     </row>
     <row r="5" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="58" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" s="66">
+      <c r="A5" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="44">
         <v>5333</v>
       </c>
-      <c r="C5" s="66">
+      <c r="C5" s="44">
         <f t="shared" si="0"/>
         <v>63996</v>
       </c>
-      <c r="D5" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="69" t="s">
-        <v>72</v>
+      <c r="D5" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="58" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" s="66">
+      <c r="A6" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="44">
         <v>3830</v>
       </c>
-      <c r="C6" s="66">
+      <c r="C6" s="44">
         <f t="shared" si="0"/>
         <v>45960</v>
       </c>
-      <c r="D6" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="61"/>
+      <c r="D6" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="37"/>
     </row>
     <row r="7" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="66">
+      <c r="A7" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="44">
         <v>3830</v>
       </c>
-      <c r="C7" s="66">
+      <c r="C7" s="44">
         <f t="shared" si="0"/>
         <v>45960</v>
       </c>
-      <c r="D7" s="58" t="s">
-        <v>78</v>
-      </c>
-      <c r="E7" s="61"/>
+      <c r="D7" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="37"/>
     </row>
     <row r="8" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="B8" s="66">
+      <c r="A8" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="44">
         <v>420</v>
       </c>
-      <c r="C8" s="66">
+      <c r="C8" s="44">
         <f t="shared" si="0"/>
         <v>5040</v>
       </c>
-      <c r="D8" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="69" t="s">
-        <v>83</v>
+      <c r="D8" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="58" t="s">
-        <v>79</v>
-      </c>
-      <c r="B9" s="66">
+      <c r="A9" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="44">
         <v>420</v>
       </c>
-      <c r="C9" s="66">
+      <c r="C9" s="44">
         <f t="shared" si="0"/>
         <v>5040</v>
       </c>
-      <c r="D9" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="69" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="59" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" s="67">
+      <c r="D9" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="42" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="52">
         <f>SUM(B2:B9)</f>
         <v>19167</v>
       </c>
-      <c r="C10" s="67">
+      <c r="C10" s="52">
         <f>SUM(C2:C9)</f>
         <v>230004</v>
       </c>
-      <c r="D10" s="53">
+      <c r="D10" s="52">
         <f>B10*12</f>
         <v>230004</v>
       </c>
-      <c r="E10" s="70" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="55" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="59"/>
-      <c r="B11" s="67"/>
-      <c r="C11" s="67"/>
-      <c r="E11" s="70"/>
-    </row>
-    <row r="12" spans="1:5" s="61" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="60" t="s">
+      <c r="E10" s="43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
+      <c r="E11" s="43"/>
+    </row>
+    <row r="12" spans="1:5" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="E12" s="33"/>
+    </row>
+    <row r="13" spans="1:5" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="E13" s="33"/>
+    </row>
+    <row r="14" spans="1:5" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="E14" s="33"/>
+    </row>
+    <row r="15" spans="1:5" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="68"/>
-      <c r="C12" s="68"/>
-      <c r="E12" s="57"/>
-    </row>
-    <row r="13" spans="1:5" s="61" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="60" t="s">
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="E15" s="33"/>
+    </row>
+    <row r="16" spans="1:5" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="68"/>
-      <c r="C13" s="68"/>
-      <c r="E13" s="57"/>
-    </row>
-    <row r="14" spans="1:5" s="61" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="62" t="s">
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="E16" s="33"/>
+    </row>
+    <row r="17" spans="1:5" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
-      <c r="E14" s="57"/>
-    </row>
-    <row r="15" spans="1:5" s="61" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="62" t="s">
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="E17" s="33"/>
+    </row>
+    <row r="18" spans="1:5" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
-      <c r="E15" s="57"/>
-    </row>
-    <row r="16" spans="1:5" s="61" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="62" t="s">
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="E18" s="33"/>
+    </row>
+    <row r="19" spans="1:5" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="68"/>
-      <c r="C16" s="68"/>
-      <c r="E16" s="57"/>
-    </row>
-    <row r="17" spans="1:5" s="61" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="60" t="s">
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="E19" s="33"/>
+    </row>
+    <row r="20" spans="1:5" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="68"/>
-      <c r="C17" s="68"/>
-      <c r="E17" s="57"/>
-    </row>
-    <row r="18" spans="1:5" s="61" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="60" t="s">
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="E20" s="33"/>
+    </row>
+    <row r="21" spans="1:5" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="68"/>
-      <c r="C18" s="68"/>
-      <c r="E18" s="57"/>
-    </row>
-    <row r="19" spans="1:5" s="61" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="60" t="s">
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="E21" s="33"/>
+    </row>
+    <row r="22" spans="1:5" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="68"/>
-      <c r="C19" s="68"/>
-      <c r="E19" s="57"/>
-    </row>
-    <row r="20" spans="1:5" s="61" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="60" t="s">
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="E22" s="33"/>
+    </row>
+    <row r="23" spans="1:5" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="68"/>
-      <c r="C20" s="68"/>
-      <c r="E20" s="57"/>
-    </row>
-    <row r="21" spans="1:5" s="61" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="62" t="s">
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="E23" s="33"/>
+    </row>
+    <row r="24" spans="1:5" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="68"/>
-      <c r="C21" s="68"/>
-      <c r="E21" s="57"/>
-    </row>
-    <row r="22" spans="1:5" s="61" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="62" t="s">
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="E24" s="33"/>
+    </row>
+    <row r="25" spans="1:5" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="68"/>
-      <c r="C22" s="68"/>
-      <c r="E22" s="57"/>
-    </row>
-    <row r="23" spans="1:5" s="61" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="60" t="s">
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="E25" s="33"/>
+    </row>
+    <row r="26" spans="1:5" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A26" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="68"/>
-      <c r="C23" s="68"/>
-      <c r="E23" s="57"/>
-    </row>
-    <row r="24" spans="1:5" s="61" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="60" t="s">
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
+      <c r="E26" s="33"/>
+    </row>
+    <row r="27" spans="1:5" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A27" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="68"/>
-      <c r="C24" s="68"/>
-      <c r="E24" s="57"/>
-    </row>
-    <row r="25" spans="1:5" s="61" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="62" t="s">
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="E27" s="33"/>
+    </row>
+    <row r="28" spans="1:5" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="68"/>
-      <c r="C25" s="68"/>
-      <c r="E25" s="57"/>
-    </row>
-    <row r="26" spans="1:5" s="61" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="60" t="s">
+      <c r="B28" s="54"/>
+      <c r="C28" s="54"/>
+      <c r="E28" s="33"/>
+    </row>
+    <row r="29" spans="1:5" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A29" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="68"/>
-      <c r="C26" s="68"/>
-      <c r="E26" s="57"/>
-    </row>
-    <row r="27" spans="1:5" s="61" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="60" t="s">
+      <c r="B29" s="54"/>
+      <c r="C29" s="54"/>
+      <c r="E29" s="33"/>
+    </row>
+    <row r="30" spans="1:5" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A30" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="B27" s="68"/>
-      <c r="C27" s="68"/>
-      <c r="E27" s="57"/>
-    </row>
-    <row r="28" spans="1:5" s="61" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="60" t="s">
+      <c r="B30" s="54"/>
+      <c r="C30" s="54"/>
+      <c r="E30" s="33"/>
+    </row>
+    <row r="31" spans="1:5" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A31" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="68"/>
-      <c r="C28" s="68"/>
-      <c r="E28" s="57"/>
-    </row>
-    <row r="29" spans="1:5" s="61" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="60" t="s">
+      <c r="B31" s="54"/>
+      <c r="C31" s="54"/>
+      <c r="E31" s="33"/>
+    </row>
+    <row r="32" spans="1:5" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A32" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="B29" s="68"/>
-      <c r="C29" s="68"/>
-      <c r="E29" s="57"/>
-    </row>
-    <row r="30" spans="1:5" s="61" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="60" t="s">
+      <c r="B32" s="54"/>
+      <c r="C32" s="54"/>
+      <c r="E32" s="33"/>
+    </row>
+    <row r="33" spans="1:5" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A33" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="B30" s="68"/>
-      <c r="C30" s="68"/>
-      <c r="E30" s="57"/>
-    </row>
-    <row r="31" spans="1:5" s="61" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A31" s="60" t="s">
-        <v>63</v>
-      </c>
-      <c r="B31" s="68"/>
-      <c r="C31" s="68"/>
-      <c r="E31" s="57"/>
-    </row>
-    <row r="32" spans="1:5" s="61" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A32" s="62" t="s">
-        <v>64</v>
-      </c>
-      <c r="B32" s="68"/>
-      <c r="C32" s="68"/>
-      <c r="E32" s="57"/>
-    </row>
-    <row r="33" spans="1:5" s="61" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A33" s="60" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="68"/>
-      <c r="C33" s="68"/>
-      <c r="E33" s="57"/>
+      <c r="B33" s="54"/>
+      <c r="C33" s="54"/>
+      <c r="E33" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2559,122 +2629,335 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C34" sqref="C33:C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" style="74"/>
-    <col min="4" max="4" width="19.7109375" style="56" customWidth="1"/>
-    <col min="5" max="5" width="111.28515625" style="57" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" style="44"/>
+    <col min="4" max="4" width="19.7109375" style="32" customWidth="1"/>
+    <col min="5" max="5" width="164" style="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="55" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="63" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" s="63" t="s">
-        <v>95</v>
-      </c>
-      <c r="E1" s="63" t="s">
+    <row r="1" spans="1:10" s="31" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+    </row>
+    <row r="2" spans="1:10" s="32" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-    </row>
-    <row r="2" spans="1:10" s="56" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="56" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="74">
+      <c r="B2" s="44">
         <v>1500</v>
       </c>
-      <c r="C2" s="74">
+      <c r="C2" s="44">
         <f>B2*12</f>
         <v>18000</v>
       </c>
-      <c r="E2" s="57" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="54" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="74">
+      <c r="E2" s="33" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="32" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="44">
         <f>B2*0.12</f>
         <v>180</v>
       </c>
-      <c r="C3" s="74">
+      <c r="C3" s="44">
         <f>B3*12</f>
         <v>2160</v>
       </c>
-      <c r="D3" s="54"/>
-      <c r="E3" s="57"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="54" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" s="74">
+      <c r="D3" s="30"/>
+      <c r="E3" s="33"/>
+    </row>
+    <row r="4" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="44">
         <v>0</v>
       </c>
-      <c r="C4" s="74">
+      <c r="C4" s="44">
         <f>B4*12</f>
         <v>0</v>
       </c>
-      <c r="D4" s="54"/>
-      <c r="E4" s="58" t="s">
+      <c r="D4" s="30"/>
+      <c r="E4" s="34" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="48" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" s="44">
+        <v>200</v>
+      </c>
+      <c r="C5" s="44">
+        <f>B5*12</f>
+        <v>2400</v>
+      </c>
+      <c r="D5" s="46"/>
+      <c r="E5" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="48" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" s="44">
+        <v>100</v>
+      </c>
+      <c r="C6" s="44">
+        <f>B6*12</f>
+        <v>1200</v>
+      </c>
+      <c r="D6" s="46"/>
+      <c r="E6" s="34" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="48" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="44">
+        <v>820</v>
+      </c>
+      <c r="C7" s="44">
+        <f>B7*12</f>
+        <v>9840</v>
+      </c>
+      <c r="D7" s="46"/>
+      <c r="E7" s="34" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="48" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="44">
+        <v>5200</v>
+      </c>
+      <c r="C8" s="44">
+        <f>B8*12</f>
+        <v>62400</v>
+      </c>
+      <c r="D8" s="46"/>
+      <c r="E8" s="34" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="48" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="44">
+        <v>820</v>
+      </c>
+      <c r="C9" s="44">
+        <f>B9*12</f>
+        <v>9840</v>
+      </c>
+      <c r="D9" s="46"/>
+      <c r="E9" s="34" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="48" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="44">
+        <v>180</v>
+      </c>
+      <c r="C10" s="44">
+        <f>B10*12</f>
+        <v>2160</v>
+      </c>
+      <c r="D10" s="46"/>
+      <c r="E10" s="34" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="48" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="44">
+        <v>800</v>
+      </c>
+      <c r="C11" s="44">
+        <f>B11*12</f>
+        <v>9600</v>
+      </c>
+      <c r="D11" s="46"/>
+      <c r="E11" s="34" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="44">
+        <v>140</v>
+      </c>
+      <c r="C12" s="44">
+        <f t="shared" ref="C12:C21" si="0">B12*12</f>
+        <v>1680</v>
+      </c>
+      <c r="D12" s="30"/>
+      <c r="E12" s="34" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="52" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" s="74">
-        <v>500</v>
-      </c>
-      <c r="D5" s="54"/>
-      <c r="E5" s="58" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="54" t="s">
-        <v>91</v>
-      </c>
-      <c r="C6" s="74">
-        <v>3800</v>
-      </c>
-      <c r="D6" s="54"/>
-      <c r="E6" s="58" t="s">
+    <row r="13" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="44">
+        <v>250</v>
+      </c>
+      <c r="C13" s="44">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+      <c r="D13" s="30"/>
+      <c r="E13" s="34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="44">
+        <v>200</v>
+      </c>
+      <c r="C14" s="44">
+        <f t="shared" si="0"/>
+        <v>2400</v>
+      </c>
+      <c r="D14" s="30"/>
+      <c r="E14" s="34" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" s="44">
+        <v>800</v>
+      </c>
+      <c r="C15" s="44">
+        <f t="shared" si="0"/>
+        <v>9600</v>
+      </c>
+      <c r="D15" s="32" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="54" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" s="74">
-        <v>2500</v>
-      </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="58" t="s">
-        <v>94</v>
+      <c r="E15" s="33" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="44">
+        <v>800</v>
+      </c>
+      <c r="C16" s="44">
+        <f t="shared" si="0"/>
+        <v>9600</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" s="44">
+        <v>0</v>
+      </c>
+      <c r="C17" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C19" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="47" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="52">
+        <f>SUM(B2:B20)</f>
+        <v>11990</v>
+      </c>
+      <c r="C21" s="52">
+        <f>SUM(C2:C20)</f>
+        <v>143880</v>
+      </c>
+      <c r="D21" s="52">
+        <f>B21*12</f>
+        <v>143880</v>
+      </c>
+      <c r="E21" s="35" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/Profit/Budget 2016 - itsprinting.org.xlsx
+++ b/Profit/Budget 2016 - itsprinting.org.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="11295" windowHeight="6750"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="11295" windowHeight="6750" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Budget Worksheet" sheetId="4" r:id="rId1"/>
@@ -13,14 +13,14 @@
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Budget Worksheet'!$A$1:$G$54</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Budget Worksheet'!$A$1:$G$52</definedName>
   </definedNames>
   <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="119">
   <si>
     <t>Total Expenses</t>
   </si>
@@ -85,13 +85,7 @@
     <t>Sub-grants to partner orgs</t>
   </si>
   <si>
-    <t>Consultant and professional fees</t>
-  </si>
-  <si>
     <t xml:space="preserve">Equipment </t>
-  </si>
-  <si>
-    <t>Postage &amp; delivery</t>
   </si>
   <si>
     <t>Staff salary and wages</t>
@@ -821,21 +815,9 @@
     <t>Domain registrations, tools, and host-provider costs.  This area needs deeper planning to consider options such as Parse.com backend with pay on demand models.</t>
   </si>
   <si>
-    <t>Paid to developers, business analysts, quality assurance, data experts, project managers, and other technical specialists as needed to produce intellectual property for use in organizational programs.  These are short project-based expenses and do not reflect a steady monthly outlay of funds</t>
-  </si>
-  <si>
-    <t>Administrative</t>
-  </si>
-  <si>
-    <t>Includes the materials to use with the printer, and general office supplies.  If expenses in this category increase it should mean that revenue increases along with it at about the same rate.</t>
-  </si>
-  <si>
     <t>Includes expenses for travel, meetings, or other business-necessary administrative costs</t>
   </si>
   <si>
-    <t xml:space="preserve">Legal, Certified Public Accounting (review, file, audit), Business Consulting, IP Asset Development (images,video &amp; other digital media), etc... </t>
-  </si>
-  <si>
     <t>Liability Insurance</t>
   </si>
   <si>
@@ -845,9 +827,6 @@
     <t>Training and skills development for ED and volunteers</t>
   </si>
   <si>
-    <t>Voluneer expenses</t>
-  </si>
-  <si>
     <t>Miscellaneous expenses related to setting up volunteers to be productive</t>
   </si>
   <si>
@@ -860,10 +839,31 @@
     <t>Travel, training and meetings</t>
   </si>
   <si>
-    <t>Technology</t>
-  </si>
-  <si>
     <t>Occupancy</t>
+  </si>
+  <si>
+    <t>Volunteer expenses</t>
+  </si>
+  <si>
+    <t>Administration expense</t>
+  </si>
+  <si>
+    <t>Legal, Certified Public Accounting (review, file, audit), Business Consulting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paid to developers, business analysts, quality assurance, data experts, project managers, and other technical specialists as needed to produce intellectual property for use in organizational programs.  These are short project-based expenses and do not reflect a steady monthly outlay of funds. IP Asset Development (images,video &amp; other digital media), etc... </t>
+  </si>
+  <si>
+    <t>Misc. Administrative</t>
+  </si>
+  <si>
+    <t>Postage and Shipping</t>
+  </si>
+  <si>
+    <t>Includes the materials to use with the printer, and general office supplies.  If expenses in this category increase it should mean that revenue increases along with it at about the same rate.  This is really a "cost of goods sold"  because it is a premium used to induce donations.  May need to adjust accounting category (~James)</t>
+  </si>
+  <si>
+    <t>This is for additional costs beyond producing the articles offered for donation premiums.  The costs are focused around two fund-raising events per year.</t>
   </si>
 </sst>
 </file>
@@ -873,8 +873,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
-    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="25" x14ac:knownFonts="1">
     <font>
@@ -1207,7 +1207,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1228,9 +1228,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1252,9 +1252,7 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1282,21 +1280,18 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1307,32 +1302,35 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="16" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -1666,565 +1664,558 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="41" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="41" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="41" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="41" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="39" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="39" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="39" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="39" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
+      <c r="A1" s="77" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
+      <c r="A2" s="78" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
       <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
+      <c r="A3" s="77" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
       <c r="H3" s="20"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
+      <c r="A4" s="76" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
       <c r="F4" s="19"/>
       <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="56" t="s">
-        <v>33</v>
+      <c r="E5" s="51" t="s">
+        <v>31</v>
       </c>
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="57" t="s">
+      <c r="D6" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="52" t="s">
         <v>12</v>
       </c>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="60"/>
+        <v>27</v>
+      </c>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="55"/>
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="61">
+        <v>23</v>
+      </c>
+      <c r="B8" s="56">
         <v>0</v>
       </c>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="62"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="57"/>
       <c r="H8" s="16"/>
     </row>
     <row r="9" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="61">
+        <v>24</v>
+      </c>
+      <c r="B9" s="56">
         <v>0</v>
       </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="62"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="57"/>
       <c r="H9" s="16"/>
     </row>
     <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="61">
-        <v>26000</v>
-      </c>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="62"/>
+      <c r="B10" s="56">
+        <f>'Revenue - Details'!C6</f>
+        <v>14400</v>
+      </c>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="57"/>
       <c r="H10" s="16"/>
     </row>
     <row r="11" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="61">
+      <c r="B11" s="56">
         <v>0</v>
       </c>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="62"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:8" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="61">
+      <c r="B12" s="56">
         <v>0</v>
       </c>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="62"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="57"/>
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="61">
-        <v>16160</v>
-      </c>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="62"/>
+      <c r="B13" s="56">
+        <f>'Revenue - Details'!C7</f>
+        <v>11760</v>
+      </c>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="57"/>
       <c r="H13" s="16"/>
     </row>
     <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="61">
-        <v>64000</v>
-      </c>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="62"/>
+      <c r="B14" s="56">
+        <f>'Revenue - Details'!C5</f>
+        <v>78000</v>
+      </c>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="57"/>
       <c r="H14" s="16"/>
     </row>
     <row r="15" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="61">
-        <v>32000</v>
-      </c>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="62"/>
+      <c r="B15" s="56">
+        <f>'Revenue - Details'!C2+'Revenue - Details'!C3+'Revenue - Details'!C4</f>
+        <v>40800</v>
+      </c>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="57"/>
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="61"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="62"/>
+      <c r="B16" s="56">
+        <v>0</v>
+      </c>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="57"/>
       <c r="H16" s="16"/>
     </row>
     <row r="17" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="63">
+      <c r="B17" s="58">
         <f>SUM(B8:B16)</f>
-        <v>138160</v>
-      </c>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="64"/>
+        <v>144960</v>
+      </c>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="59"/>
       <c r="H17" s="18"/>
     </row>
     <row r="18" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="63">
-        <v>10000</v>
-      </c>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="64"/>
+        <v>35</v>
+      </c>
+      <c r="B18" s="58">
+        <f>'Revenue - Details'!C8+'Revenue - Details'!C9</f>
+        <v>10080</v>
+      </c>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="59"/>
       <c r="H18" s="17"/>
     </row>
     <row r="19" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="63">
+      <c r="B19" s="58">
         <f>B18</f>
-        <v>10000</v>
-      </c>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="64"/>
+        <v>10080</v>
+      </c>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="59"/>
       <c r="H19" s="16"/>
     </row>
     <row r="20" spans="1:8" s="2" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="66"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="61"/>
       <c r="H20" s="17"/>
     </row>
     <row r="21" spans="1:8" s="4" customFormat="1" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="67">
+      <c r="B21" s="62">
         <f>B19+B17</f>
-        <v>148160</v>
-      </c>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="68"/>
+        <v>155040</v>
+      </c>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="63"/>
       <c r="H21" s="18"/>
     </row>
     <row r="22" spans="1:8" s="2" customFormat="1" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
-      <c r="B22" s="69"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="60"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="55"/>
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
-      <c r="B23" s="70"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="71"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="66"/>
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="72"/>
-      <c r="C24" s="72"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="73"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="68"/>
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="61">
+        <v>22</v>
+      </c>
+      <c r="B25" s="56">
+        <f>'Expense - Details'!C2</f>
         <v>18000</v>
       </c>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="62"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="57"/>
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="61">
-        <v>10000</v>
-      </c>
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="62"/>
+      <c r="B26" s="56">
+        <f>'Expense - Details'!C12</f>
+        <v>9600</v>
+      </c>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="57"/>
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="61">
+      <c r="B27" s="56">
         <f>'Expense - Details'!C3</f>
         <v>2160</v>
       </c>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="62"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="57"/>
       <c r="H27" s="6"/>
     </row>
-    <row r="28" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" s="61">
-        <v>0</v>
-      </c>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="62"/>
+        <v>112</v>
+      </c>
+      <c r="B28" s="56">
+        <f>'Expense - Details'!C7+'Expense - Details'!C10+'Expense - Details'!C13+'Expense - Details'!C14+'Expense - Details'!C18+'Expense - Details'!C19</f>
+        <v>15600</v>
+      </c>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="57"/>
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29" s="61">
-        <v>5000</v>
-      </c>
-      <c r="C29" s="61"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="62"/>
+        <v>20</v>
+      </c>
+      <c r="B29" s="56">
+        <v>0</v>
+      </c>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="57"/>
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="B30" s="61">
-        <v>5000</v>
-      </c>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="62"/>
+        <v>109</v>
+      </c>
+      <c r="B30" s="56">
+        <f>'Expense - Details'!C5+'Expense - Details'!C6</f>
+        <v>3000</v>
+      </c>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="57"/>
       <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" s="61">
-        <v>10000</v>
-      </c>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="62"/>
+        <v>21</v>
+      </c>
+      <c r="B31" s="56">
+        <f>'Expense - Details'!C16</f>
+        <v>9600</v>
+      </c>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="57"/>
       <c r="H31" s="6"/>
     </row>
     <row r="32" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="61">
-        <v>10000</v>
-      </c>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="62"/>
+      <c r="B32" s="56">
+        <f>'Expense - Details'!C17</f>
+        <v>9600</v>
+      </c>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="57"/>
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" s="61">
-        <v>6000</v>
-      </c>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="62"/>
+        <v>34</v>
+      </c>
+      <c r="B33" s="56">
+        <f>'Expense - Details'!C15</f>
+        <v>2400</v>
+      </c>
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="57"/>
       <c r="H33" s="6"/>
     </row>
-    <row r="34" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" s="44" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="B34" s="61">
-        <v>9000</v>
-      </c>
-      <c r="C34" s="61"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="62"/>
+        <v>110</v>
+      </c>
+      <c r="B34" s="56">
+        <f>'Expense - Details'!C18</f>
+        <v>0</v>
+      </c>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="57"/>
       <c r="H34" s="6"/>
     </row>
-    <row r="35" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="B35" s="61">
-        <v>0</v>
-      </c>
-      <c r="C35" s="61"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="62"/>
+        <v>38</v>
+      </c>
+      <c r="B35" s="56">
+        <f>'Expense - Details'!C11</f>
+        <v>10800</v>
+      </c>
+      <c r="C35" s="56"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="57"/>
       <c r="H35" s="6"/>
     </row>
     <row r="36" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B36" s="61">
-        <v>1200</v>
-      </c>
-      <c r="C36" s="61"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="62"/>
+        <v>37</v>
+      </c>
+      <c r="B36" s="56">
+        <f>'Expense - Details'!C8+'Expense - Details'!C9</f>
+        <v>64800</v>
+      </c>
+      <c r="C36" s="56"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="57"/>
       <c r="H36" s="6"/>
     </row>
-    <row r="37" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" s="61">
-        <v>17000</v>
-      </c>
-      <c r="C37" s="61"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="62"/>
-      <c r="H37" s="6"/>
-    </row>
-    <row r="38" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" s="61">
-        <v>41000</v>
-      </c>
-      <c r="C38" s="61"/>
-      <c r="D38" s="61"/>
-      <c r="E38" s="62"/>
-      <c r="H38" s="6"/>
-    </row>
-    <row r="39" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="58">
+        <f>SUM(B25:B36)</f>
+        <v>145560</v>
+      </c>
+      <c r="C37" s="58"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="59"/>
+      <c r="H37" s="8"/>
+    </row>
+    <row r="38" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="58">
+        <v>10000</v>
+      </c>
+      <c r="C38" s="58"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="59"/>
+      <c r="H38" s="8"/>
+    </row>
+    <row r="39" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39" s="63">
-        <f>SUM(B25:B38)</f>
-        <v>134360</v>
-      </c>
-      <c r="C39" s="63"/>
-      <c r="D39" s="63"/>
-      <c r="E39" s="64"/>
-      <c r="H39" s="8"/>
-    </row>
-    <row r="40" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" s="63">
+        <v>10</v>
+      </c>
+      <c r="B39" s="58">
+        <f>B38</f>
         <v>10000</v>
       </c>
-      <c r="C40" s="63"/>
-      <c r="D40" s="63"/>
-      <c r="E40" s="64"/>
-      <c r="H40" s="8"/>
-    </row>
-    <row r="41" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B41" s="63">
-        <f>B40</f>
-        <v>10000</v>
-      </c>
-      <c r="C41" s="63"/>
-      <c r="D41" s="63"/>
-      <c r="E41" s="64"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="59"/>
+      <c r="H39" s="10"/>
+    </row>
+    <row r="40" spans="1:8" s="3" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
+      <c r="B40" s="69"/>
+      <c r="C40" s="69"/>
+      <c r="D40" s="70"/>
+      <c r="E40" s="71"/>
+      <c r="H40" s="10"/>
+    </row>
+    <row r="41" spans="1:8" s="3" customFormat="1" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="62">
+        <f>SUM(B39,B37)</f>
+        <v>155560</v>
+      </c>
+      <c r="C41" s="62"/>
+      <c r="D41" s="62"/>
+      <c r="E41" s="63"/>
       <c r="H41" s="10"/>
     </row>
-    <row r="42" spans="1:8" s="3" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
-      <c r="B42" s="74"/>
-      <c r="C42" s="74"/>
-      <c r="D42" s="75"/>
-      <c r="E42" s="76"/>
+    <row r="42" spans="1:8" s="3" customFormat="1" ht="13.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="7"/>
+      <c r="B42" s="72"/>
+      <c r="C42" s="72"/>
+      <c r="D42" s="72"/>
+      <c r="E42" s="73"/>
       <c r="H42" s="10"/>
     </row>
     <row r="43" spans="1:8" s="3" customFormat="1" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B43" s="67">
-        <f>SUM(B41,B39)</f>
-        <v>144360</v>
-      </c>
-      <c r="C43" s="67"/>
-      <c r="D43" s="67"/>
-      <c r="E43" s="68"/>
+      <c r="A43" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="74">
+        <f>B21-B41</f>
+        <v>-520</v>
+      </c>
+      <c r="C43" s="74"/>
+      <c r="D43" s="74"/>
+      <c r="E43" s="75"/>
       <c r="H43" s="10"/>
     </row>
-    <row r="44" spans="1:8" s="3" customFormat="1" ht="13.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="7"/>
-      <c r="B44" s="77"/>
-      <c r="C44" s="77"/>
-      <c r="D44" s="77"/>
-      <c r="E44" s="78"/>
-      <c r="H44" s="10"/>
-    </row>
-    <row r="45" spans="1:8" s="3" customFormat="1" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B45" s="79">
-        <f>B21-B43</f>
-        <v>3800</v>
-      </c>
-      <c r="C45" s="79"/>
-      <c r="D45" s="79"/>
-      <c r="E45" s="80"/>
-      <c r="H45" s="10"/>
-    </row>
-    <row r="46" spans="1:8" s="1" customFormat="1" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="11"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-    </row>
-    <row r="47" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A47" s="13"/>
-      <c r="B47" s="58"/>
-      <c r="C47" s="58"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
+    <row r="44" spans="1:8" s="1" customFormat="1" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="11"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+    </row>
+    <row r="45" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A45" s="13"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2249,374 +2240,374 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.140625" style="33" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="44" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="44" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" style="33" customWidth="1"/>
-    <col min="5" max="5" width="126.5703125" style="33" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" style="31" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="42" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="42" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="126.5703125" style="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="40" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="B1" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="53" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" s="39" t="s">
-        <v>79</v>
+    <row r="1" spans="1:5" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="44">
-        <v>1250</v>
-      </c>
-      <c r="C2" s="44">
+      <c r="A2" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="42">
+        <v>1000</v>
+      </c>
+      <c r="C2" s="42">
         <f>B2*12</f>
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="D2" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="42" t="s">
-        <v>66</v>
+      <c r="E2" s="40" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="44">
-        <v>1200</v>
-      </c>
-      <c r="C3" s="44">
+      <c r="A3" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="42">
+        <v>1000</v>
+      </c>
+      <c r="C3" s="42">
         <f t="shared" ref="C3:C9" si="0">B3*12</f>
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="D3" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="37"/>
+      <c r="E3" s="35"/>
     </row>
     <row r="4" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="44">
-        <v>2884</v>
-      </c>
-      <c r="C4" s="44">
+      <c r="A4" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="42">
+        <v>1400</v>
+      </c>
+      <c r="C4" s="42">
         <f>B4*12</f>
-        <v>34608</v>
+        <v>16800</v>
       </c>
       <c r="D4" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="37"/>
+      <c r="E4" s="35"/>
     </row>
     <row r="5" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" s="44">
-        <v>5333</v>
-      </c>
-      <c r="C5" s="44">
+      <c r="A5" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="42">
+        <v>6500</v>
+      </c>
+      <c r="C5" s="42">
         <f t="shared" si="0"/>
-        <v>63996</v>
+        <v>78000</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="42" t="s">
-        <v>69</v>
+      <c r="E5" s="40" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="B6" s="44">
-        <v>3830</v>
-      </c>
-      <c r="C6" s="44">
+      <c r="A6" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="42">
+        <v>1200</v>
+      </c>
+      <c r="C6" s="42">
         <f t="shared" si="0"/>
-        <v>45960</v>
+        <v>14400</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="37"/>
+      <c r="E6" s="35"/>
     </row>
     <row r="7" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="B7" s="44">
-        <v>3830</v>
-      </c>
-      <c r="C7" s="44">
+      <c r="A7" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="42">
+        <v>980</v>
+      </c>
+      <c r="C7" s="42">
         <f t="shared" si="0"/>
-        <v>45960</v>
-      </c>
-      <c r="D7" s="34" t="s">
+        <v>11760</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="35"/>
+    </row>
+    <row r="8" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="37"/>
-    </row>
-    <row r="8" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" s="44">
+      <c r="B8" s="42">
         <v>420</v>
       </c>
-      <c r="C8" s="44">
+      <c r="C8" s="42">
         <f t="shared" si="0"/>
         <v>5040</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="42" t="s">
-        <v>80</v>
+        <v>35</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="B9" s="44">
+      <c r="A9" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="42">
         <v>420</v>
       </c>
-      <c r="C9" s="44">
+      <c r="C9" s="42">
         <f t="shared" si="0"/>
         <v>5040</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="42" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="52">
+        <v>35</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="47">
         <f>SUM(B2:B9)</f>
-        <v>19167</v>
-      </c>
-      <c r="C10" s="52">
+        <v>12920</v>
+      </c>
+      <c r="C10" s="47">
         <f>SUM(C2:C9)</f>
-        <v>230004</v>
-      </c>
-      <c r="D10" s="52">
+        <v>155040</v>
+      </c>
+      <c r="D10" s="47">
         <f>B10*12</f>
-        <v>230004</v>
-      </c>
-      <c r="E10" s="43" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
-      <c r="E11" s="43"/>
-    </row>
-    <row r="12" spans="1:5" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="36" t="s">
+        <v>155040</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="E11" s="41"/>
+    </row>
+    <row r="12" spans="1:5" s="35" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="E12" s="31"/>
+    </row>
+    <row r="13" spans="1:5" s="35" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="E13" s="31"/>
+    </row>
+    <row r="14" spans="1:5" s="35" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="E12" s="33"/>
-    </row>
-    <row r="13" spans="1:5" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="36" t="s">
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="E14" s="31"/>
+    </row>
+    <row r="15" spans="1:5" s="35" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="E13" s="33"/>
-    </row>
-    <row r="14" spans="1:5" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="38" t="s">
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="E15" s="31"/>
+    </row>
+    <row r="16" spans="1:5" s="35" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="E14" s="33"/>
-    </row>
-    <row r="15" spans="1:5" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="38" t="s">
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="E16" s="31"/>
+    </row>
+    <row r="17" spans="1:5" s="35" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="E15" s="33"/>
-    </row>
-    <row r="16" spans="1:5" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="38" t="s">
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="E17" s="31"/>
+    </row>
+    <row r="18" spans="1:5" s="35" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="E16" s="33"/>
-    </row>
-    <row r="17" spans="1:5" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="36" t="s">
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="E18" s="31"/>
+    </row>
+    <row r="19" spans="1:5" s="35" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="E17" s="33"/>
-    </row>
-    <row r="18" spans="1:5" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="36" t="s">
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="E19" s="31"/>
+    </row>
+    <row r="20" spans="1:5" s="35" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="E18" s="33"/>
-    </row>
-    <row r="19" spans="1:5" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="36" t="s">
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="E20" s="31"/>
+    </row>
+    <row r="21" spans="1:5" s="35" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
-      <c r="E19" s="33"/>
-    </row>
-    <row r="20" spans="1:5" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="36" t="s">
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="E21" s="31"/>
+    </row>
+    <row r="22" spans="1:5" s="35" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="E20" s="33"/>
-    </row>
-    <row r="21" spans="1:5" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="38" t="s">
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="E22" s="31"/>
+    </row>
+    <row r="23" spans="1:5" s="35" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
-      <c r="E21" s="33"/>
-    </row>
-    <row r="22" spans="1:5" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="38" t="s">
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+      <c r="E23" s="31"/>
+    </row>
+    <row r="24" spans="1:5" s="35" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
-      <c r="E22" s="33"/>
-    </row>
-    <row r="23" spans="1:5" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="36" t="s">
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="E24" s="31"/>
+    </row>
+    <row r="25" spans="1:5" s="35" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="E23" s="33"/>
-    </row>
-    <row r="24" spans="1:5" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="36" t="s">
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="E25" s="31"/>
+    </row>
+    <row r="26" spans="1:5" s="35" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A26" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="E24" s="33"/>
-    </row>
-    <row r="25" spans="1:5" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="38" t="s">
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
+      <c r="E26" s="31"/>
+    </row>
+    <row r="27" spans="1:5" s="35" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A27" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="E25" s="33"/>
-    </row>
-    <row r="26" spans="1:5" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="36" t="s">
+      <c r="B27" s="49"/>
+      <c r="C27" s="49"/>
+      <c r="E27" s="31"/>
+    </row>
+    <row r="28" spans="1:5" s="35" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="54"/>
-      <c r="C26" s="54"/>
-      <c r="E26" s="33"/>
-    </row>
-    <row r="27" spans="1:5" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="36" t="s">
+      <c r="B28" s="49"/>
+      <c r="C28" s="49"/>
+      <c r="E28" s="31"/>
+    </row>
+    <row r="29" spans="1:5" s="35" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A29" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="E27" s="33"/>
-    </row>
-    <row r="28" spans="1:5" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="36" t="s">
+      <c r="B29" s="49"/>
+      <c r="C29" s="49"/>
+      <c r="E29" s="31"/>
+    </row>
+    <row r="30" spans="1:5" s="35" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A30" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="54"/>
-      <c r="C28" s="54"/>
-      <c r="E28" s="33"/>
-    </row>
-    <row r="29" spans="1:5" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="36" t="s">
+      <c r="B30" s="49"/>
+      <c r="C30" s="49"/>
+      <c r="E30" s="31"/>
+    </row>
+    <row r="31" spans="1:5" s="35" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A31" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="54"/>
-      <c r="C29" s="54"/>
-      <c r="E29" s="33"/>
-    </row>
-    <row r="30" spans="1:5" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="36" t="s">
+      <c r="B31" s="49"/>
+      <c r="C31" s="49"/>
+      <c r="E31" s="31"/>
+    </row>
+    <row r="32" spans="1:5" s="35" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A32" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="54"/>
-      <c r="C30" s="54"/>
-      <c r="E30" s="33"/>
-    </row>
-    <row r="31" spans="1:5" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A31" s="36" t="s">
+      <c r="B32" s="49"/>
+      <c r="C32" s="49"/>
+      <c r="E32" s="31"/>
+    </row>
+    <row r="33" spans="1:5" s="35" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A33" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="54"/>
-      <c r="C31" s="54"/>
-      <c r="E31" s="33"/>
-    </row>
-    <row r="32" spans="1:5" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A32" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" s="54"/>
-      <c r="C32" s="54"/>
-      <c r="E32" s="33"/>
-    </row>
-    <row r="33" spans="1:5" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A33" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="B33" s="54"/>
-      <c r="C33" s="54"/>
-      <c r="E33" s="33"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="49"/>
+      <c r="E33" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2629,335 +2620,391 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C34" sqref="C33:C34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" style="44"/>
-    <col min="4" max="4" width="19.7109375" style="32" customWidth="1"/>
-    <col min="5" max="5" width="164" style="33" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" style="42"/>
+    <col min="4" max="4" width="30" style="30" customWidth="1"/>
+    <col min="5" max="5" width="164" style="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="31" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:10" s="29" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+    </row>
+    <row r="2" spans="1:10" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="49">
+        <v>1500</v>
+      </c>
+      <c r="C2" s="49">
+        <f t="shared" ref="C2:C12" si="0">B2*12</f>
+        <v>18000</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="E1" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-    </row>
-    <row r="2" spans="1:10" s="32" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="32" t="s">
+    </row>
+    <row r="3" spans="1:10" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="44">
-        <v>1500</v>
-      </c>
-      <c r="C2" s="44">
-        <f>B2*12</f>
-        <v>18000</v>
-      </c>
-      <c r="E2" s="33" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="32" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" s="44">
+      <c r="B3" s="49">
         <f>B2*0.12</f>
         <v>180</v>
       </c>
-      <c r="C3" s="44">
-        <f>B3*12</f>
+      <c r="C3" s="49">
+        <f t="shared" si="0"/>
         <v>2160</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="33"/>
-    </row>
-    <row r="4" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4" s="44">
+      <c r="D3" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="49">
         <v>0</v>
       </c>
-      <c r="C4" s="44">
-        <f>B4*12</f>
+      <c r="C4" s="49">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="34" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="48" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="46" t="s">
-        <v>110</v>
-      </c>
-      <c r="B5" s="44">
-        <v>200</v>
-      </c>
-      <c r="C5" s="44">
-        <f>B5*12</f>
-        <v>2400</v>
-      </c>
-      <c r="D5" s="46"/>
-      <c r="E5" s="34" t="s">
+      <c r="D4" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="40" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="49">
+        <v>150</v>
+      </c>
+      <c r="C5" s="49">
+        <f t="shared" si="0"/>
+        <v>1800</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" s="40" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="40" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" s="48" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="46" t="s">
+      <c r="B6" s="49">
+        <v>100</v>
+      </c>
+      <c r="C6" s="49">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="49">
+        <v>720</v>
+      </c>
+      <c r="C7" s="49">
+        <f t="shared" si="0"/>
+        <v>8640</v>
+      </c>
+      <c r="D7" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="44">
+      <c r="E7" s="40" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="44">
-        <f>B6*12</f>
-        <v>1200</v>
-      </c>
-      <c r="D6" s="46"/>
-      <c r="E6" s="34" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="48" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="46" t="s">
+      <c r="B8" s="49">
+        <v>4800</v>
+      </c>
+      <c r="C8" s="49">
+        <f t="shared" si="0"/>
+        <v>57600</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="44">
-        <v>820</v>
-      </c>
-      <c r="C7" s="44">
-        <f>B7*12</f>
-        <v>9840</v>
-      </c>
-      <c r="D7" s="46"/>
-      <c r="E7" s="34" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="48" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="46" t="s">
+      <c r="B9" s="49">
+        <v>600</v>
+      </c>
+      <c r="C9" s="49">
+        <f t="shared" si="0"/>
+        <v>7200</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" s="49">
+        <v>90</v>
+      </c>
+      <c r="C10" s="49">
+        <f t="shared" si="0"/>
+        <v>1080</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="E10" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="B8" s="44">
-        <v>5200</v>
-      </c>
-      <c r="C8" s="44">
-        <f>B8*12</f>
-        <v>62400</v>
-      </c>
-      <c r="D8" s="46"/>
-      <c r="E8" s="34" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="48" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="46" t="s">
-        <v>98</v>
-      </c>
-      <c r="B9" s="44">
-        <v>820</v>
-      </c>
-      <c r="C9" s="44">
-        <f>B9*12</f>
-        <v>9840</v>
-      </c>
-      <c r="D9" s="46"/>
-      <c r="E9" s="34" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="48" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="46" t="s">
-        <v>105</v>
-      </c>
-      <c r="B10" s="44">
-        <v>180</v>
-      </c>
-      <c r="C10" s="44">
-        <f>B10*12</f>
-        <v>2160</v>
-      </c>
-      <c r="D10" s="46"/>
-      <c r="E10" s="34" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="48" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="B11" s="44">
+    </row>
+    <row r="11" spans="1:10" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="49">
+        <v>900</v>
+      </c>
+      <c r="C11" s="49">
+        <f t="shared" si="0"/>
+        <v>10800</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" s="49">
         <v>800</v>
       </c>
-      <c r="C11" s="44">
-        <f>B11*12</f>
-        <v>9600</v>
-      </c>
-      <c r="D11" s="46"/>
-      <c r="E11" s="34" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="B12" s="44">
-        <v>140</v>
-      </c>
-      <c r="C12" s="44">
-        <f t="shared" ref="C12:C21" si="0">B12*12</f>
-        <v>1680</v>
-      </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="34" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="B13" s="44">
-        <v>250</v>
-      </c>
-      <c r="C13" s="44">
-        <f t="shared" si="0"/>
-        <v>3000</v>
-      </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="34" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="B14" s="44">
-        <v>200</v>
-      </c>
-      <c r="C14" s="44">
-        <f t="shared" si="0"/>
-        <v>2400</v>
-      </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="34" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="46" t="s">
-        <v>94</v>
-      </c>
-      <c r="B15" s="44">
-        <v>800</v>
-      </c>
-      <c r="C15" s="44">
+      <c r="C12" s="49">
         <f t="shared" si="0"/>
         <v>9600</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D12" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="49">
+        <v>140</v>
+      </c>
+      <c r="C13" s="49">
+        <f t="shared" ref="C13:C21" si="1">B13*12</f>
+        <v>1680</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="49">
+        <v>250</v>
+      </c>
+      <c r="C14" s="49">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="49">
+        <v>200</v>
+      </c>
+      <c r="C15" s="49">
+        <f t="shared" si="1"/>
+        <v>2400</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="40" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="E15" s="33" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="46" t="s">
+      <c r="B16" s="49">
+        <v>800</v>
+      </c>
+      <c r="C16" s="49">
+        <f t="shared" si="1"/>
+        <v>9600</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="44">
+      <c r="B17" s="49">
         <v>800</v>
       </c>
-      <c r="C16" s="44">
-        <f t="shared" si="0"/>
+      <c r="C17" s="49">
+        <f t="shared" si="1"/>
         <v>9600</v>
       </c>
-      <c r="D16" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="E16" s="33" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="46" t="s">
-        <v>95</v>
-      </c>
-      <c r="B17" s="44">
+      <c r="D17" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" s="49">
         <v>0</v>
       </c>
-      <c r="C17" s="44">
-        <f t="shared" si="0"/>
+      <c r="C18" s="49">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E17" s="33" t="s">
+      <c r="D18" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="E18" s="35" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="B19" s="49">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="44">
-        <f t="shared" si="0"/>
+      <c r="C19" s="49">
+        <f t="shared" si="1"/>
+        <v>1200</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="42">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="44">
-        <f t="shared" si="0"/>
+    <row r="21" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="42">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="47" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" s="52">
-        <f>SUM(B2:B20)</f>
-        <v>11990</v>
-      </c>
-      <c r="C21" s="52">
-        <f>SUM(C2:C20)</f>
-        <v>143880</v>
-      </c>
-      <c r="D21" s="52">
-        <f>B21*12</f>
-        <v>143880</v>
-      </c>
-      <c r="E21" s="35" t="s">
-        <v>71</v>
+    <row r="22" spans="1:5" s="45" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="47">
+        <f>SUM(B2:B21)</f>
+        <v>12130</v>
+      </c>
+      <c r="C22" s="47">
+        <f>SUM(C2:C21)</f>
+        <v>145560</v>
+      </c>
+      <c r="D22" s="47">
+        <f>B22*12</f>
+        <v>145560</v>
+      </c>
+      <c r="E22" s="33" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
